--- a/Output_code/Data/Table_6b.xlsx
+++ b/Output_code/Data/Table_6b.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t xml:space="preserve">ATT</t>
   </si>
@@ -56,6 +56,9 @@
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">All</t>
+  </si>
+  <si>
     <t xml:space="preserve">NoPatentsYearGUOtotal</t>
   </si>
   <si>
@@ -63,6 +66,12 @@
   </si>
   <si>
     <t xml:space="preserve">Nace_2d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IQR</t>
   </si>
   <si>
     <t xml:space="preserve">Relatedness_Cos2</t>
@@ -461,116 +470,122 @@
         <v>8.52380952380952</v>
       </c>
       <c r="B2" t="n">
-        <v>13.24457981865</v>
+        <v>13.3301404228699</v>
       </c>
       <c r="C2" t="n">
-        <v>-13.2635242778698</v>
+        <v>-13.4042714718115</v>
       </c>
       <c r="D2" t="n">
-        <v>30.3111433254888</v>
+        <v>30.4518905194305</v>
       </c>
       <c r="E2" t="n">
-        <v>-17.4355669207446</v>
+        <v>-17.6032657050155</v>
       </c>
       <c r="F2" t="n">
-        <v>34.4831859683636</v>
+        <v>34.6508847526346</v>
       </c>
       <c r="G2" t="n">
-        <v>-25.594228089033</v>
+        <v>-25.8146322055034</v>
       </c>
       <c r="H2" t="n">
-        <v>42.641847136652</v>
+        <v>42.8622512531225</v>
       </c>
       <c r="I2" t="s">
         <v>13</v>
       </c>
-      <c r="J2"/>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-6.61666666666667</v>
+        <v>1.52083333333333</v>
       </c>
       <c r="B3" t="n">
-        <v>34.4268471815993</v>
+        <v>1.56496900842258</v>
       </c>
       <c r="C3" t="n">
-        <v>-63.2488302803974</v>
+        <v>-1.05354068552181</v>
       </c>
       <c r="D3" t="n">
-        <v>50.0154969470641</v>
+        <v>4.09520735218848</v>
       </c>
       <c r="E3" t="n">
-        <v>-74.0932871426012</v>
+        <v>-1.54650592317492</v>
       </c>
       <c r="F3" t="n">
-        <v>60.8599538092679</v>
+        <v>4.58817258984159</v>
       </c>
       <c r="G3" t="n">
-        <v>-95.3002250064663</v>
+        <v>-2.51052683236323</v>
       </c>
       <c r="H3" t="n">
-        <v>82.066891673133</v>
+        <v>5.5521934990299</v>
       </c>
       <c r="I3" t="s">
         <v>13</v>
       </c>
-      <c r="J3"/>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
       <c r="K3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.52083333333333</v>
+        <v>-6.61666666666667</v>
       </c>
       <c r="B4" t="n">
-        <v>1.76187711556786</v>
+        <v>32.859613086454</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.37745452177579</v>
+        <v>-60.6707301938834</v>
       </c>
       <c r="D4" t="n">
-        <v>4.41912118844246</v>
+        <v>47.4373968605501</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.93244581317966</v>
+        <v>-71.0215083161164</v>
       </c>
       <c r="F4" t="n">
-        <v>4.97411247984633</v>
+        <v>57.7881749827831</v>
       </c>
       <c r="G4" t="n">
-        <v>-3.01776211636946</v>
+        <v>-91.263029977372</v>
       </c>
       <c r="H4" t="n">
-        <v>6.05942878303613</v>
+        <v>78.0296966440387</v>
       </c>
       <c r="I4" t="s">
         <v>13</v>
       </c>
-      <c r="J4"/>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
       <c r="K4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
@@ -578,116 +593,122 @@
         <v>2.17619047619048</v>
       </c>
       <c r="B5" t="n">
-        <v>1.95202568283653</v>
+        <v>2.03656090456969</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.03489177207561</v>
+        <v>-1.17395221182666</v>
       </c>
       <c r="D5" t="n">
-        <v>5.38727272445656</v>
+        <v>5.52633316420761</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.64977986216911</v>
+        <v>-1.81546889676611</v>
       </c>
       <c r="F5" t="n">
-        <v>6.00216081455007</v>
+        <v>6.16784984914706</v>
       </c>
       <c r="G5" t="n">
-        <v>-2.85222768279641</v>
+        <v>-3.06999041398103</v>
       </c>
       <c r="H5" t="n">
-        <v>7.20460863517737</v>
+        <v>7.42237136636198</v>
       </c>
       <c r="I5" t="s">
         <v>13</v>
       </c>
-      <c r="J5"/>
+      <c r="J5" t="s">
+        <v>14</v>
+      </c>
       <c r="K5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.43333333333333</v>
+        <v>-0.0833333333333333</v>
       </c>
       <c r="B6" t="n">
-        <v>2.87913114154796</v>
+        <v>1.82751315128295</v>
       </c>
       <c r="C6" t="n">
-        <v>-2.30283739451306</v>
+        <v>-3.08959246719378</v>
       </c>
       <c r="D6" t="n">
-        <v>7.16950406117973</v>
+        <v>2.92292580052711</v>
       </c>
       <c r="E6" t="n">
-        <v>-3.20976370410067</v>
+        <v>-3.66525910984791</v>
       </c>
       <c r="F6" t="n">
-        <v>8.07643037076734</v>
+        <v>3.49859244318124</v>
       </c>
       <c r="G6" t="n">
-        <v>-4.98330848729422</v>
+        <v>-4.7910072110382</v>
       </c>
       <c r="H6" t="n">
-        <v>9.84997515396088</v>
+        <v>4.62434054437154</v>
       </c>
       <c r="I6" t="s">
         <v>13</v>
       </c>
-      <c r="J6"/>
+      <c r="J6" t="s">
+        <v>18</v>
+      </c>
       <c r="K6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.0833333333333333</v>
+        <v>2.43333333333333</v>
       </c>
       <c r="B7" t="n">
-        <v>1.80177352943389</v>
+        <v>2.83671224474072</v>
       </c>
       <c r="C7" t="n">
-        <v>-3.04725078925209</v>
+        <v>-2.23305830926515</v>
       </c>
       <c r="D7" t="n">
-        <v>2.88058412258542</v>
+        <v>7.09972497593182</v>
       </c>
       <c r="E7" t="n">
-        <v>-3.61480945102376</v>
+        <v>-3.12662266635848</v>
       </c>
       <c r="F7" t="n">
-        <v>3.4481427843571</v>
+        <v>7.99328933302514</v>
       </c>
       <c r="G7" t="n">
-        <v>-4.72470194515504</v>
+        <v>-4.87403740911876</v>
       </c>
       <c r="H7" t="n">
-        <v>4.55803527848837</v>
+        <v>9.74070407578543</v>
       </c>
       <c r="I7" t="s">
         <v>13</v>
       </c>
-      <c r="J7"/>
+      <c r="J7" t="s">
+        <v>19</v>
+      </c>
       <c r="K7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
@@ -695,116 +716,122 @@
         <v>0.861538461538461</v>
       </c>
       <c r="B8" t="n">
-        <v>0.850610124889367</v>
+        <v>0.81411530104923</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.537715193904548</v>
+        <v>-0.477681208687522</v>
       </c>
       <c r="D8" t="n">
-        <v>2.26079211698147</v>
+        <v>2.20075813176444</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.805657383244699</v>
+        <v>-0.734127528518029</v>
       </c>
       <c r="F8" t="n">
-        <v>2.52873430632162</v>
+        <v>2.45720445159495</v>
       </c>
       <c r="G8" t="n">
-        <v>-1.32963322017655</v>
+        <v>-1.23562255396435</v>
       </c>
       <c r="H8" t="n">
-        <v>3.05271014325347</v>
+        <v>2.95869947704128</v>
       </c>
       <c r="I8" t="s">
         <v>13</v>
       </c>
-      <c r="J8"/>
+      <c r="J8" t="s">
+        <v>14</v>
+      </c>
       <c r="K8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.88</v>
+        <v>0.685714285714286</v>
       </c>
       <c r="B9" t="n">
-        <v>2.13099358873205</v>
+        <v>0.13918306541073</v>
       </c>
       <c r="C9" t="n">
-        <v>-4.38548445346423</v>
+        <v>0.456758143113635</v>
       </c>
       <c r="D9" t="n">
-        <v>2.62548445346423</v>
+        <v>0.914670428314936</v>
       </c>
       <c r="E9" t="n">
-        <v>-5.05674743391482</v>
+        <v>0.412915477509255</v>
       </c>
       <c r="F9" t="n">
-        <v>3.29674743391482</v>
+        <v>0.958513093919316</v>
       </c>
       <c r="G9" t="n">
-        <v>-6.36943948457377</v>
+        <v>0.327178709216245</v>
       </c>
       <c r="H9" t="n">
-        <v>4.60943948457377</v>
+        <v>1.04424986221233</v>
       </c>
       <c r="I9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9"/>
+        <v>22</v>
+      </c>
+      <c r="J9" t="s">
+        <v>18</v>
+      </c>
       <c r="K9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.685714285714286</v>
+        <v>-0.88</v>
       </c>
       <c r="B10" t="n">
-        <v>0.145234503037283</v>
+        <v>2.12703998281604</v>
       </c>
       <c r="C10" t="n">
-        <v>0.446803528217954</v>
+        <v>-4.37898077173238</v>
       </c>
       <c r="D10" t="n">
-        <v>0.924625043210617</v>
+        <v>2.61898077173238</v>
       </c>
       <c r="E10" t="n">
-        <v>0.40105465976121</v>
+        <v>-5.04899836631943</v>
       </c>
       <c r="F10" t="n">
-        <v>0.970373911667361</v>
+        <v>3.28899836631943</v>
       </c>
       <c r="G10" t="n">
-        <v>0.311590205890244</v>
+        <v>-6.35925499573411</v>
       </c>
       <c r="H10" t="n">
-        <v>1.05983836553833</v>
+        <v>4.59925499573411</v>
       </c>
       <c r="I10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" t="s">
         <v>19</v>
       </c>
-      <c r="J10"/>
       <c r="K10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11">
@@ -812,38 +839,40 @@
         <v>0.0269230769230769</v>
       </c>
       <c r="B11" t="n">
-        <v>0.256670026082412</v>
+        <v>0.267131583156779</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.395299115982491</v>
+        <v>-0.412508377369824</v>
       </c>
       <c r="D11" t="n">
-        <v>0.449145269828645</v>
+        <v>0.466354531215978</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.476150174198451</v>
+        <v>-0.496654826064209</v>
       </c>
       <c r="F11" t="n">
-        <v>0.529996328044605</v>
+        <v>0.550500979910363</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.634258910265217</v>
+        <v>-0.661207881288785</v>
       </c>
       <c r="H11" t="n">
-        <v>0.688105064111371</v>
+        <v>0.715054035134939</v>
       </c>
       <c r="I11" t="s">
         <v>13</v>
       </c>
-      <c r="J11"/>
+      <c r="J11" t="s">
+        <v>14</v>
+      </c>
       <c r="K11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12">
@@ -851,38 +880,40 @@
         <v>-0.346666666666667</v>
       </c>
       <c r="B12" t="n">
-        <v>0.391406985685479</v>
+        <v>0.407221409349539</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.990531158119279</v>
+        <v>-1.01654588504666</v>
       </c>
       <c r="D12" t="n">
-        <v>0.297197824785946</v>
+        <v>0.323212551713325</v>
       </c>
       <c r="E12" t="n">
-        <v>-1.11382435861021</v>
+        <v>-1.14482062899176</v>
       </c>
       <c r="F12" t="n">
-        <v>0.420491025276872</v>
+        <v>0.451487295658429</v>
       </c>
       <c r="G12" t="n">
-        <v>-1.35493106179246</v>
+        <v>-1.39566901715108</v>
       </c>
       <c r="H12" t="n">
-        <v>0.661597728459127</v>
+        <v>0.702335683817745</v>
       </c>
       <c r="I12" t="s">
         <v>13</v>
       </c>
-      <c r="J12"/>
+      <c r="J12" t="s">
+        <v>19</v>
+      </c>
       <c r="K12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13">
@@ -890,116 +921,122 @@
         <v>0.8</v>
       </c>
       <c r="B13" t="n">
-        <v>1.56585603539092</v>
+        <v>1.56471557214591</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.77583317821806</v>
+        <v>-1.77395711618003</v>
       </c>
       <c r="D13" t="n">
-        <v>3.37583317821806</v>
+        <v>3.37395711618003</v>
       </c>
       <c r="E13" t="n">
-        <v>-2.2690778293662</v>
+        <v>-2.26684252140599</v>
       </c>
       <c r="F13" t="n">
-        <v>3.8690778293662</v>
+        <v>3.86684252140599</v>
       </c>
       <c r="G13" t="n">
-        <v>-3.233645147167</v>
+        <v>-3.23070731384787</v>
       </c>
       <c r="H13" t="n">
-        <v>4.833645147167</v>
+        <v>4.83070731384787</v>
       </c>
       <c r="I13" t="s">
         <v>13</v>
       </c>
-      <c r="J13"/>
+      <c r="J13" t="s">
+        <v>14</v>
+      </c>
       <c r="K13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-3.21333333333333</v>
+        <v>1.6</v>
       </c>
       <c r="B14" t="n">
-        <v>3.9601952592083</v>
+        <v>0.787897178977263</v>
       </c>
       <c r="C14" t="n">
-        <v>-9.72785453473098</v>
+        <v>0.303909140582403</v>
       </c>
       <c r="D14" t="n">
-        <v>3.30118786806431</v>
+        <v>2.8960908594176</v>
       </c>
       <c r="E14" t="n">
-        <v>-10.9753160413816</v>
+        <v>0.0557215292045654</v>
       </c>
       <c r="F14" t="n">
-        <v>4.54864937471493</v>
+        <v>3.14427847079543</v>
       </c>
       <c r="G14" t="n">
-        <v>-13.4147963210539</v>
+        <v>-0.429623133045429</v>
       </c>
       <c r="H14" t="n">
-        <v>6.98812965438724</v>
+        <v>3.62962313304543</v>
       </c>
       <c r="I14" t="s">
-        <v>13</v>
-      </c>
-      <c r="J14"/>
+        <v>25</v>
+      </c>
+      <c r="J14" t="s">
+        <v>18</v>
+      </c>
       <c r="K14" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1.6</v>
+        <v>-3.21333333333333</v>
       </c>
       <c r="B15" t="n">
-        <v>0.745537115591389</v>
+        <v>3.87980527224933</v>
       </c>
       <c r="C15" t="n">
-        <v>0.373591444852166</v>
+        <v>-9.59561300618348</v>
       </c>
       <c r="D15" t="n">
-        <v>2.82640855514783</v>
+        <v>3.16894633951681</v>
       </c>
       <c r="E15" t="n">
-        <v>0.138747253440878</v>
+        <v>-10.817751666942</v>
       </c>
       <c r="F15" t="n">
-        <v>3.06125274655912</v>
+        <v>4.39108500027535</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.320503609763417</v>
+        <v>-13.2077117146476</v>
       </c>
       <c r="H15" t="n">
-        <v>3.52050360976342</v>
+        <v>6.78104504798093</v>
       </c>
       <c r="I15" t="s">
-        <v>22</v>
-      </c>
-      <c r="J15"/>
+        <v>13</v>
+      </c>
+      <c r="J15" t="s">
+        <v>19</v>
+      </c>
       <c r="K15" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16">
@@ -1007,116 +1044,122 @@
         <v>0.101215795470641</v>
       </c>
       <c r="B16" t="n">
-        <v>0.163899356055839</v>
+        <v>0.161869376940621</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.168398645241213</v>
+        <v>-0.165059329596679</v>
       </c>
       <c r="D16" t="n">
-        <v>0.370830236182496</v>
+        <v>0.367490920537962</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.220026942398802</v>
+        <v>-0.216048183332975</v>
       </c>
       <c r="F16" t="n">
-        <v>0.422458533340085</v>
+        <v>0.418479774274258</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.320988945729199</v>
+        <v>-0.315759719528397</v>
       </c>
       <c r="H16" t="n">
-        <v>0.523420536670482</v>
+        <v>0.51819131046968</v>
       </c>
       <c r="I16" t="s">
         <v>13</v>
       </c>
-      <c r="J16"/>
+      <c r="J16" t="s">
+        <v>14</v>
+      </c>
       <c r="K16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.196431066705517</v>
+        <v>0.0533780072569339</v>
       </c>
       <c r="B17" t="n">
-        <v>0.412258054906866</v>
+        <v>0.150362868759223</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.481733433616278</v>
+        <v>-0.193968911851988</v>
       </c>
       <c r="D17" t="n">
-        <v>0.874595567027312</v>
+        <v>0.300724926365856</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.61159472091194</v>
+        <v>-0.241333215511143</v>
       </c>
       <c r="F17" t="n">
-        <v>1.00445685432297</v>
+        <v>0.348089230025011</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.86554568273457</v>
+        <v>-0.333956742666825</v>
       </c>
       <c r="H17" t="n">
-        <v>1.2584078161456</v>
+        <v>0.440712757180692</v>
       </c>
       <c r="I17" t="s">
         <v>13</v>
       </c>
-      <c r="J17"/>
+      <c r="J17" t="s">
+        <v>18</v>
+      </c>
       <c r="K17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L17" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.0533780072569339</v>
+        <v>0.196431066705517</v>
       </c>
       <c r="B18" t="n">
-        <v>0.154979272624638</v>
+        <v>0.350952211574158</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.201562896210595</v>
+        <v>-0.380885321333974</v>
       </c>
       <c r="D18" t="n">
-        <v>0.308318910724463</v>
+        <v>0.773747454745007</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.250381367087356</v>
+        <v>-0.491435267979833</v>
       </c>
       <c r="F18" t="n">
-        <v>0.357137381601224</v>
+        <v>0.884297401390867</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.345848599024133</v>
+        <v>-0.707621830309515</v>
       </c>
       <c r="H18" t="n">
-        <v>0.452604613538001</v>
+        <v>1.10048396372055</v>
       </c>
       <c r="I18" t="s">
         <v>13</v>
       </c>
-      <c r="J18"/>
+      <c r="J18" t="s">
+        <v>19</v>
+      </c>
       <c r="K18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19">
@@ -1124,116 +1167,122 @@
         <v>0.278785706473358</v>
       </c>
       <c r="B19" t="n">
-        <v>0.248591329317074</v>
+        <v>0.256024950841698</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.130147030253229</v>
+        <v>-0.142375337661235</v>
       </c>
       <c r="D19" t="n">
-        <v>0.687718443199945</v>
+        <v>0.699946750607951</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.208453298988107</v>
+        <v>-0.22302319717637</v>
       </c>
       <c r="F19" t="n">
-        <v>0.766024711934823</v>
+        <v>0.780594610123085</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.361585557847425</v>
+        <v>-0.380734566894855</v>
       </c>
       <c r="H19" t="n">
-        <v>0.919156970794141</v>
+        <v>0.938305979841571</v>
       </c>
       <c r="I19" t="s">
         <v>13</v>
       </c>
-      <c r="J19"/>
+      <c r="J19" t="s">
+        <v>14</v>
+      </c>
       <c r="K19" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L19" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.133445018142335</v>
+        <v>-0.0186823025399268</v>
       </c>
       <c r="B20" t="n">
-        <v>0.199362698359268</v>
+        <v>0.0773247647456969</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.194506620658661</v>
+        <v>-0.145881540546598</v>
       </c>
       <c r="D20" t="n">
-        <v>0.461396656943331</v>
+        <v>0.108516935466745</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.25730587064183</v>
+        <v>-0.170238841441493</v>
       </c>
       <c r="F20" t="n">
-        <v>0.5241959069265</v>
+        <v>0.132874236361639</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.380113292831139</v>
+        <v>-0.217870896524842</v>
       </c>
       <c r="H20" t="n">
-        <v>0.647003329115809</v>
+        <v>0.180506291444988</v>
       </c>
       <c r="I20" t="s">
         <v>13</v>
       </c>
-      <c r="J20"/>
+      <c r="J20" t="s">
+        <v>18</v>
+      </c>
       <c r="K20" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L20" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-0.0186823025399268</v>
+        <v>0.133445018142335</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0794680951117823</v>
+        <v>0.192042400801253</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.149407318998809</v>
+        <v>-0.182464731175727</v>
       </c>
       <c r="D21" t="n">
-        <v>0.112042713918955</v>
+        <v>0.449354767460396</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.17443976895902</v>
+        <v>-0.242958087428121</v>
       </c>
       <c r="F21" t="n">
-        <v>0.137075163879166</v>
+        <v>0.509848123712791</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.223392115547878</v>
+        <v>-0.361256206321693</v>
       </c>
       <c r="H21" t="n">
-        <v>0.186027510468024</v>
+        <v>0.628146242606363</v>
       </c>
       <c r="I21" t="s">
         <v>13</v>
       </c>
-      <c r="J21"/>
+      <c r="J21" t="s">
+        <v>19</v>
+      </c>
       <c r="K21" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L21" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22">
@@ -1241,116 +1290,122 @@
         <v>0.0693940135040204</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0612709287090799</v>
+        <v>0.0654611790521182</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.0313966642224161</v>
+        <v>-0.038289626036714</v>
       </c>
       <c r="D22" t="n">
-        <v>0.170184691230457</v>
+        <v>0.177077653044755</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.0506970067657763</v>
+        <v>-0.0589098974381312</v>
       </c>
       <c r="F22" t="n">
-        <v>0.189485033773817</v>
+        <v>0.197697924446172</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.0884398988505695</v>
+        <v>-0.099233983734236</v>
       </c>
       <c r="H22" t="n">
-        <v>0.22722792585861</v>
+        <v>0.238022010742277</v>
       </c>
       <c r="I22" t="s">
         <v>13</v>
       </c>
-      <c r="J22"/>
+      <c r="J22" t="s">
+        <v>14</v>
+      </c>
       <c r="K22" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L22" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-0.504073428505235</v>
+        <v>-0.32572479982457</v>
       </c>
       <c r="B23" t="n">
-        <v>0.359537974672366</v>
+        <v>0.217255194230814</v>
       </c>
       <c r="C23" t="n">
-        <v>-1.09551339684128</v>
+        <v>-0.683109594334259</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0873665398308068</v>
+        <v>0.0316599946851182</v>
       </c>
       <c r="E23" t="n">
-        <v>-1.20876785886307</v>
+        <v>-0.751544980516965</v>
       </c>
       <c r="F23" t="n">
-        <v>0.200621001852602</v>
+        <v>0.100095380867824</v>
       </c>
       <c r="G23" t="n">
-        <v>-1.43024325126125</v>
+        <v>-0.885374180163147</v>
       </c>
       <c r="H23" t="n">
-        <v>0.422096394250779</v>
+        <v>0.233924580514006</v>
       </c>
       <c r="I23" t="s">
         <v>13</v>
       </c>
-      <c r="J23"/>
+      <c r="J23" t="s">
+        <v>18</v>
+      </c>
       <c r="K23" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L23" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-0.32572479982457</v>
+        <v>-0.504073428505235</v>
       </c>
       <c r="B24" t="n">
-        <v>0.22114302098637</v>
+        <v>0.38960591206373</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.68950506934715</v>
+        <v>-1.14497515385007</v>
       </c>
       <c r="D24" t="n">
-        <v>0.038055469698009</v>
+        <v>0.136828296839601</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.759165120957856</v>
+        <v>-1.26770101615015</v>
       </c>
       <c r="F24" t="n">
-        <v>0.107715521308716</v>
+        <v>0.259554159139676</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.895389221885461</v>
+        <v>-1.5076982579814</v>
       </c>
       <c r="H24" t="n">
-        <v>0.24393962223632</v>
+        <v>0.499551400970934</v>
       </c>
       <c r="I24" t="s">
         <v>13</v>
       </c>
-      <c r="J24"/>
+      <c r="J24" t="s">
+        <v>19</v>
+      </c>
       <c r="K24" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L24" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25">
@@ -1358,116 +1413,122 @@
         <v>0.0154132428627408</v>
       </c>
       <c r="B25" t="n">
-        <v>0.156496532578604</v>
+        <v>0.157639117981737</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.242023553229063</v>
+        <v>-0.243903106217217</v>
       </c>
       <c r="D25" t="n">
-        <v>0.272850038954544</v>
+        <v>0.274729591942699</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.291319960991323</v>
+        <v>-0.293559428381464</v>
       </c>
       <c r="F25" t="n">
-        <v>0.322146446716804</v>
+        <v>0.324385914106946</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.387721825059743</v>
+        <v>-0.390665125058214</v>
       </c>
       <c r="H25" t="n">
-        <v>0.418548310785224</v>
+        <v>0.421491610783696</v>
       </c>
       <c r="I25" t="s">
         <v>13</v>
       </c>
-      <c r="J25"/>
+      <c r="J25" t="s">
+        <v>14</v>
+      </c>
       <c r="K25" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L25" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.024738497496316</v>
+        <v>-0.083616121537548</v>
       </c>
       <c r="B26" t="n">
-        <v>0.030576685175868</v>
+        <v>0.0559023962281712</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.0255601496179868</v>
+        <v>-0.17557556333289</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0750371446106188</v>
+        <v>0.00834332025779365</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.0351918054483852</v>
+        <v>-0.193184818144764</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0846688004410172</v>
+        <v>0.0259525750696676</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.0540270435167199</v>
+        <v>-0.227620694221317</v>
       </c>
       <c r="H26" t="n">
-        <v>0.103504038509352</v>
+        <v>0.0603884511462211</v>
       </c>
       <c r="I26" t="s">
         <v>13</v>
       </c>
-      <c r="J26"/>
+      <c r="J26" t="s">
+        <v>18</v>
+      </c>
       <c r="K26" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L26" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M26" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-0.083616121537548</v>
+        <v>0.024738497496316</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0555661871748581</v>
+        <v>0.0310412649586281</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.17502249944019</v>
+        <v>-0.0263243833606272</v>
       </c>
       <c r="D27" t="n">
-        <v>0.00779025636509346</v>
+        <v>0.0758013783532591</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.19252584840027</v>
+        <v>-0.036102381822595</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0252936053251737</v>
+        <v>0.085579376815227</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.226754619699982</v>
+        <v>-0.0552238010371099</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0595223766248863</v>
+        <v>0.104700796029742</v>
       </c>
       <c r="I27" t="s">
         <v>13</v>
       </c>
-      <c r="J27"/>
+      <c r="J27" t="s">
+        <v>19</v>
+      </c>
       <c r="K27" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L27" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M27" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28">
@@ -1475,38 +1536,40 @@
         <v>0.0442170250610522</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0816301499897575</v>
+        <v>0.0804324875574753</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.090064571672099</v>
+        <v>-0.0880944169709948</v>
       </c>
       <c r="D28" t="n">
-        <v>0.178498621794203</v>
+        <v>0.176528467093099</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.115778068918873</v>
+        <v>-0.113430650551599</v>
       </c>
       <c r="F28" t="n">
-        <v>0.204212119040977</v>
+        <v>0.201864700673704</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.166062241312563</v>
+        <v>-0.162977062887004</v>
       </c>
       <c r="H28" t="n">
-        <v>0.254496291434668</v>
+        <v>0.251411113009109</v>
       </c>
       <c r="I28" t="s">
         <v>13</v>
       </c>
-      <c r="J28"/>
+      <c r="J28" t="s">
+        <v>14</v>
+      </c>
       <c r="K28" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L28" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M28" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29">
@@ -1514,38 +1577,40 @@
         <v>0.0237489575964633</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0201725431987933</v>
+        <v>0.0216396372496147</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.0094348759655517</v>
+        <v>-0.0118482456791528</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0569327911584784</v>
+        <v>0.0593461608720795</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.0157892270731716</v>
+        <v>-0.0186647314127814</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0632871422660983</v>
+        <v>0.0661626466057081</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.0282155136836283</v>
+        <v>-0.0319947479585441</v>
       </c>
       <c r="H29" t="n">
-        <v>0.075713428876555</v>
+        <v>0.0794926631514707</v>
       </c>
       <c r="I29" t="s">
         <v>13</v>
       </c>
-      <c r="J29"/>
+      <c r="J29" t="s">
+        <v>18</v>
+      </c>
       <c r="K29" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L29" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M29" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
